--- a/result.xlsx
+++ b/result.xlsx
@@ -1,25 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE67764-A809-4C85-81A2-9C8F41DEA816}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+  <si>
+    <t>prob</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>speedup</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +99,5373 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>robots success graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>success</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.60399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0EEC-4360-8E82-4A2D844F249A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446036079"/>
+        <c:axId val="445879983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446036079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Prob</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445879983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="445879983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Success percentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446036079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Strong Scaling -- Ave time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.9330829999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8893689999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.928879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5032620000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1212329999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77956400000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58710700000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42358699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36740600000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25889800000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18351100000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.154698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E24F-4402-AAD5-5DFB61F09D93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="243224943"/>
+        <c:axId val="445892047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="243224943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Task number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445892047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="445892047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ave time/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243224943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Strong</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Scaling -- </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7073219100779444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5574870170705366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2815856450838239</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3996948002779082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.328002575798779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4023576622319265</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.645973554429196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.426789437298247</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.054156463163096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.881674668003551</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.888473024861341</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CB2-4E68-AF16-C32D21442169}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="445978879"/>
+        <c:axId val="241437263"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="445978879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Task</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> number</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="241437263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="241437263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> up</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445978879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weak</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Scaling -- Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.50080599999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59946299999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57584900000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65086100000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7627-489D-BA4E-A3FB0C7C411A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="446004079"/>
+        <c:axId val="445895375"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="446004079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Task numbers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445895375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="445895375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="446004079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weak Scaling</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> -- speedup</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8354243714791405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86968285088625652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76945154188067799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72EB-4EF7-96C8-C2F2919013FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="235707727"/>
+        <c:axId val="234357871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="235707727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Task number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="234357871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="234357871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="235707727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C45B04F-2AFD-436F-B4B2-D57303CB9441}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8EE6AA0-1C8D-4CD0-8B04-0602D7477255}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>394335</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43022F8-1679-4F21-A7E5-E6ABDF1C7127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>340995</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC6FAF6C-D2E1-41AA-A1D2-8D8BCCCF9B1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>367665</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>459105</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2CCDC96-F02D-483A-A94A-4AEBB0E1C898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +5730,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="D2">
+        <v>70</v>
+      </c>
+      <c r="E2">
+        <v>67</v>
+      </c>
+      <c r="F2">
+        <v>53</v>
+      </c>
+      <c r="G2">
+        <v>65</v>
+      </c>
+      <c r="H2">
+        <v>70</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(D2:H2)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>0.8</v>
+      </c>
+      <c r="B3">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>0.6</v>
+      </c>
+      <c r="B4">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>0.2</v>
+      </c>
+      <c r="B6">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD482615-94E8-4DC6-9425-2BADC826C91A}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4.9330829999999999</v>
+      </c>
+      <c r="C2">
+        <f>$B$2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2.8893689999999999</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C13" si="0">$B$2/B3</f>
+        <v>1.7073219100779444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1.928879</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2.5574870170705366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.5032620000000001</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3.2815856450838239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1.1212329999999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4.3996948002779082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.77956400000000003</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6.328002575798779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.58710700000000005</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>8.4023576622319265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0.42358699999999999</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>11.645973554429196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>0.36740600000000001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>13.426789437298247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>0.25889800000000002</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>19.054156463163096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>0.18351100000000001</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>26.881674668003551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>0.154698</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>31.888473024861341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF5E77F-BBF6-481A-B014-B8226E574E59}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="A1:A5 C1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.50080599999999997</v>
+      </c>
+      <c r="C2">
+        <f>$B$2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.59946299999999997</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C5" si="0">$B$2/B3</f>
+        <v>0.8354243714791405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.57584900000000006</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.86968285088625652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.65086100000000002</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.76945154188067799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6085EAB0-DF6A-414B-BB5E-93F67880EF5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB9D42D-02BF-42EC-8072-CB0189869365}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,16 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet7!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet7!$B$2:$B$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet7!$C$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet7!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet7!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet7!$B$2:$B$9</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet7!$C$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet7!$C$2:$C$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="40">
   <si>
     <t>prob</t>
   </si>
@@ -79,6 +89,9 @@
     <t>Mean</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>success rate for domain decomposition</t>
   </si>
   <si>
@@ -107,6 +120,48 @@
   </si>
   <si>
     <t>task number</t>
+  </si>
+  <si>
+    <t>Anova: Single Factor</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Between Groups</t>
+  </si>
+  <si>
+    <t>Within Groups</t>
   </si>
 </sst>
 </file>
@@ -2703,6 +2758,534 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>success rate for domain decomposition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet7!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet7!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.309</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.307</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-27B9-41B1-81F7-679A4F17C129}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1855787567"/>
+        <c:axId val="1905282799"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1855787567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1905282799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1905282799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1855787567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>ox plot for the results</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{2CE45230-4521-4DDE-973C-D0B641BA7762}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>success rate for domain decomposition</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{26BB5FB7-010A-4204-8A1A-90F800B4B391}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>success rate for robot supervision</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2903,6 +3486,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5479,6 +6142,1037 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5673,6 +7367,125 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1131570</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1764030</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F916A6B2-79BE-48F5-8885-4E8CA0166160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F385FC4F-B09E-4B32-9E57-804D8406E9A3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="2465070"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16783,13 +18596,13 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -16818,7 +18631,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -16852,7 +18665,7 @@
         <v>0.19</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" s="19">
         <v>9.1666666666666688E-2</v>
@@ -16872,7 +18685,7 @@
         <v>0.253</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="19">
         <v>10</v>
@@ -16892,7 +18705,7 @@
         <v>0.40500000000000003</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7" s="19">
         <v>9</v>
@@ -16912,7 +18725,7 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8" s="19">
         <v>1.5316165658432594</v>
@@ -16930,7 +18743,7 @@
         <v>0.57099999999999995</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="19">
         <v>0.25764039910019065</v>
@@ -16948,7 +18761,7 @@
         <v>0.64800000000000002</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" s="20">
         <v>3.0203829470213761</v>
@@ -16979,7 +18792,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
@@ -16989,7 +18802,7 @@
         <v>8</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -17005,7 +18818,7 @@
     </row>
     <row r="17" spans="10:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J17" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K17" s="19">
         <v>9.1666666666666688E-2</v>
@@ -17016,7 +18829,7 @@
     </row>
     <row r="18" spans="10:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J18" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K18" s="19">
         <v>10</v>
@@ -17027,7 +18840,7 @@
     </row>
     <row r="19" spans="10:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J19" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K19" s="19">
         <v>9</v>
@@ -17038,7 +18851,7 @@
     </row>
     <row r="20" spans="10:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J20" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K20" s="19">
         <v>1.7178407156757247</v>
@@ -17047,7 +18860,7 @@
     </row>
     <row r="21" spans="10:12" x14ac:dyDescent="0.55000000000000004">
       <c r="J21" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" s="19">
         <v>0.20564015034204397</v>
@@ -17056,7 +18869,7 @@
     </row>
     <row r="22" spans="10:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J22" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K22" s="20">
         <v>3.0203829470213761</v>
@@ -17071,31 +18884,35 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F91079D-950F-4538-80ED-231FAB58B42C}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.62890625" customWidth="1"/>
-    <col min="2" max="2" width="36.7890625" customWidth="1"/>
-    <col min="3" max="3" width="42.7890625" customWidth="1"/>
+    <col min="2" max="2" width="11.1015625" customWidth="1"/>
+    <col min="3" max="3" width="16.7890625" customWidth="1"/>
+    <col min="11" max="11" width="37.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -17106,7 +18923,7 @@
         <v>0.28499999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17116,8 +18933,11 @@
       <c r="C3">
         <v>0.28599999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -17127,8 +18947,23 @@
       <c r="C4">
         <v>0.29199999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -17138,8 +18973,38 @@
       <c r="C5">
         <v>0.28599999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="19">
+        <v>8</v>
+      </c>
+      <c r="F5" s="19">
+        <v>36</v>
+      </c>
+      <c r="G5" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H5" s="19">
+        <v>6</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17149,8 +19014,38 @@
       <c r="C6">
         <v>0.29299999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="20">
+        <v>8</v>
+      </c>
+      <c r="F6" s="20">
+        <v>2.4299999999999997</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.30374999999999996</v>
+      </c>
+      <c r="H6" s="20">
+        <v>5.2500000000000097E-5</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="19">
+        <v>8</v>
+      </c>
+      <c r="O6" s="19">
+        <v>36</v>
+      </c>
+      <c r="P6" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17160,8 +19055,23 @@
       <c r="C7">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="M7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="20">
+        <v>8</v>
+      </c>
+      <c r="O7" s="20">
+        <v>2.4299999999999997</v>
+      </c>
+      <c r="P7" s="20">
+        <v>0.30374999999999996</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>5.2500000000000097E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -17172,7 +19082,7 @@
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -17182,8 +19092,362 @@
       <c r="C9">
         <v>0.28599999999999998</v>
       </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="19">
+        <v>70.434056249999969</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>70.434056249999969</v>
+      </c>
+      <c r="H11" s="19">
+        <v>23.477813319133446</v>
+      </c>
+      <c r="I11" s="19">
+        <v>2.5949271942754358E-4</v>
+      </c>
+      <c r="J11" s="19">
+        <v>4.6001099366694227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="19">
+        <v>42.000367500000003</v>
+      </c>
+      <c r="F12" s="19">
+        <v>14</v>
+      </c>
+      <c r="G12" s="19">
+        <v>3.0000262500000003</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="20">
+        <v>112.43442374999998</v>
+      </c>
+      <c r="F14" s="20">
+        <v>15</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="19">
+        <v>8</v>
+      </c>
+      <c r="F22" s="19">
+        <v>36</v>
+      </c>
+      <c r="G22" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="H22" s="19">
+        <v>6</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="20">
+        <v>8</v>
+      </c>
+      <c r="M22" s="20">
+        <v>2.4299999999999997</v>
+      </c>
+      <c r="N22" s="20">
+        <v>0.30374999999999996</v>
+      </c>
+      <c r="O22" s="20">
+        <v>5.2500000000000097E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="20">
+        <v>8</v>
+      </c>
+      <c r="F23" s="20">
+        <v>2.3119999999999998</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="H23" s="20">
+        <v>1.3428571428571452E-5</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="20">
+        <v>8</v>
+      </c>
+      <c r="M23" s="20">
+        <v>2.3119999999999998</v>
+      </c>
+      <c r="N23" s="20">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="O23" s="20">
+        <v>1.3428571428571452E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="19">
+        <v>70.930083999999994</v>
+      </c>
+      <c r="F28" s="19">
+        <v>1</v>
+      </c>
+      <c r="G28" s="19">
+        <v>70.930083999999994</v>
+      </c>
+      <c r="H28" s="19">
+        <v>23.64330841735735</v>
+      </c>
+      <c r="I28" s="19">
+        <v>2.5133909501237774E-4</v>
+      </c>
+      <c r="J28" s="19">
+        <v>4.6001099366694227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="19">
+        <v>42.000093999999997</v>
+      </c>
+      <c r="F29" s="19">
+        <v>14</v>
+      </c>
+      <c r="G29" s="19">
+        <v>3.0000067142857141</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="D31" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="20">
+        <v>112.930178</v>
+      </c>
+      <c r="F31" s="20">
+        <v>15</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>